--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Glg1-Sele.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Glg1-Sele.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>25.881338</v>
+        <v>11.347161</v>
       </c>
       <c r="H2">
-        <v>77.644014</v>
+        <v>34.041483</v>
       </c>
       <c r="I2">
-        <v>0.3003352138642484</v>
+        <v>0.1617975773769501</v>
       </c>
       <c r="J2">
-        <v>0.3003352138642483</v>
+        <v>0.1617975773769501</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,10 +552,10 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.321929333333332</v>
+        <v>0.5273163333333333</v>
       </c>
       <c r="N2">
-        <v>21.965788</v>
+        <v>1.581949</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>189.5013278881146</v>
+        <v>5.983543332262999</v>
       </c>
       <c r="R2">
-        <v>1705.511950993032</v>
+        <v>53.85188999036699</v>
       </c>
       <c r="S2">
-        <v>0.3003352138642484</v>
+        <v>0.1617975773769501</v>
       </c>
       <c r="T2">
-        <v>0.3003352138642483</v>
+        <v>0.1617975773769501</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>121.635841</v>
       </c>
       <c r="I3">
-        <v>0.4705002283922712</v>
+        <v>0.5781294662164954</v>
       </c>
       <c r="J3">
-        <v>0.4705002283922713</v>
+        <v>0.5781294662164954</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,10 +614,10 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.321929333333332</v>
+        <v>0.5273163333333333</v>
       </c>
       <c r="N3">
-        <v>21.965788</v>
+        <v>1.581949</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -626,16 +626,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>296.8696774008564</v>
+        <v>21.38018855934544</v>
       </c>
       <c r="R3">
-        <v>2671.827096607708</v>
+        <v>192.421697034109</v>
       </c>
       <c r="S3">
-        <v>0.4705002283922712</v>
+        <v>0.5781294662164954</v>
       </c>
       <c r="T3">
-        <v>0.4705002283922713</v>
+        <v>0.5781294662164954</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.74821833333333</v>
+        <v>18.23939366666667</v>
       </c>
       <c r="H4">
-        <v>59.24465499999999</v>
+        <v>54.718181</v>
       </c>
       <c r="I4">
-        <v>0.2291645577434805</v>
+        <v>0.2600729564065544</v>
       </c>
       <c r="J4">
-        <v>0.2291645577434805</v>
+        <v>0.2600729564065544</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,10 +676,10 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.321929333333332</v>
+        <v>0.5273163333333333</v>
       </c>
       <c r="N4">
-        <v>21.965788</v>
+        <v>1.581949</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -688,16 +688,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>144.5950590959044</v>
+        <v>9.617930190529888</v>
       </c>
       <c r="R4">
-        <v>1301.35553186314</v>
+        <v>86.561371714769</v>
       </c>
       <c r="S4">
-        <v>0.2291645577434805</v>
+        <v>0.2600729564065544</v>
       </c>
       <c r="T4">
-        <v>0.2291645577434805</v>
+        <v>0.2600729564065544</v>
       </c>
     </row>
   </sheetData>
